--- a/src/examples/figures/DetectionLimitsmass.xlsx
+++ b/src/examples/figures/DetectionLimitsmass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>IUPAC Average</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Az3</t>
+  </si>
+  <si>
+    <t>Ti301</t>
+  </si>
+  <si>
+    <t>Ti302</t>
+  </si>
+  <si>
+    <t>Ti303</t>
   </si>
   <si>
     <t>HehAz11</t>
@@ -524,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,19 +561,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4.81891495138629E-17</v>
+        <v>4.818914951387165E-17</v>
       </c>
       <c r="C2">
-        <v>4.19922920080251E-17</v>
+        <v>4.199229200803119E-17</v>
       </c>
       <c r="D2">
-        <v>5.438600701970071E-17</v>
+        <v>5.438600701971211E-17</v>
       </c>
       <c r="E2">
-        <v>1.054097101427563E-18</v>
+        <v>1.054097101427558E-18</v>
       </c>
       <c r="F2">
-        <v>4.693042685674559E-18</v>
+        <v>4.693042685677219E-18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -572,19 +581,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4.910243666173693E-17</v>
+        <v>4.910243666173877E-17</v>
       </c>
       <c r="C3">
-        <v>4.268122958182733E-17</v>
+        <v>4.268122958182859E-17</v>
       </c>
       <c r="D3">
-        <v>5.552364374164654E-17</v>
+        <v>5.552364374164894E-17</v>
       </c>
       <c r="E3">
-        <v>1.229274150605362E-18</v>
+        <v>1.229274150605333E-18</v>
       </c>
       <c r="F3">
-        <v>4.917392259746361E-18</v>
+        <v>4.91739225974693E-18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -592,19 +601,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.577898418239004E-16</v>
+        <v>1.577898418239006E-16</v>
       </c>
       <c r="C4">
-        <v>1.332817428755123E-16</v>
+        <v>1.332817428755126E-16</v>
       </c>
       <c r="D4">
-        <v>1.822979407722885E-16</v>
+        <v>1.822979407722888E-16</v>
       </c>
       <c r="E4">
-        <v>5.293629627524301E-17</v>
+        <v>5.293629627524338E-17</v>
       </c>
       <c r="F4">
-        <v>2.456530119665748E-17</v>
+        <v>2.456530119665745E-17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -612,19 +621,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4.268561548389213E-18</v>
+        <v>4.268561548394336E-18</v>
       </c>
       <c r="C5">
-        <v>-1.789409314651095E-18</v>
+        <v>-1.789409314647515E-18</v>
       </c>
       <c r="D5">
-        <v>1.032653241142952E-17</v>
+        <v>1.032653241143619E-17</v>
       </c>
       <c r="E5">
-        <v>-3.284886306833718E-17</v>
+        <v>-3.284886306833714E-17</v>
       </c>
       <c r="F5">
-        <v>3.172531117999033E-17</v>
+        <v>3.172531117998879E-17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -632,19 +641,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8.40261651237309E-18</v>
+        <v>8.402616512370166E-18</v>
       </c>
       <c r="C6">
-        <v>1.328161089922957E-18</v>
+        <v>1.328161089920953E-18</v>
       </c>
       <c r="D6">
-        <v>1.547707193482322E-17</v>
+        <v>1.547707193481937E-17</v>
       </c>
       <c r="E6">
-        <v>-3.205904230481163E-17</v>
+        <v>-3.205904230481154E-17</v>
       </c>
       <c r="F6">
-        <v>3.070882662058051E-17</v>
+        <v>3.070882662058143E-17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -652,19 +661,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2.066557912839114E-18</v>
+        <v>2.066557912842886E-18</v>
       </c>
       <c r="C7">
-        <v>-3.64344794517095E-18</v>
+        <v>-3.643447945168329E-18</v>
       </c>
       <c r="D7">
-        <v>7.776563770849179E-18</v>
+        <v>7.776563770854101E-18</v>
       </c>
       <c r="E7">
-        <v>-3.390606183733779E-17</v>
+        <v>-3.39060618373378E-17</v>
       </c>
       <c r="F7">
-        <v>3.207327618502058E-17</v>
+        <v>3.207327618501943E-17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -672,19 +681,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>5.532649922566905E-18</v>
+        <v>5.532649922572819E-18</v>
       </c>
       <c r="C8">
-        <v>-1.013226097030979E-18</v>
+        <v>-1.013226097026843E-18</v>
       </c>
       <c r="D8">
-        <v>1.207852594216479E-17</v>
+        <v>1.207852594217248E-17</v>
       </c>
       <c r="E8">
-        <v>-3.318998265923392E-17</v>
+        <v>-3.318998265923385E-17</v>
       </c>
       <c r="F8">
-        <v>3.123740602343276E-17</v>
+        <v>3.123740602343098E-17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -692,19 +701,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>8.424701618846952E-18</v>
+        <v>8.424701618843651E-18</v>
       </c>
       <c r="C9">
-        <v>1.46284866955385E-18</v>
+        <v>1.462848669551583E-18</v>
       </c>
       <c r="D9">
-        <v>1.538655456814005E-17</v>
+        <v>1.538655456813572E-17</v>
       </c>
       <c r="E9">
-        <v>-3.166649506165115E-17</v>
+        <v>-3.166649506165104E-17</v>
       </c>
       <c r="F9">
-        <v>3.082142909373754E-17</v>
+        <v>3.082142909373858E-17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -712,19 +721,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2.913638171515539E-18</v>
+        <v>2.913638171516902E-18</v>
       </c>
       <c r="C10">
-        <v>-2.98914654808097E-18</v>
+        <v>-2.989146548080022E-18</v>
       </c>
       <c r="D10">
-        <v>8.816422891112053E-18</v>
+        <v>8.816422891113833E-18</v>
       </c>
       <c r="E10">
         <v>-3.369322403328078E-17</v>
       </c>
       <c r="F10">
-        <v>3.188049732343413E-17</v>
+        <v>3.188049732343371E-17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -732,19 +741,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2.255490774674276E-18</v>
+        <v>2.255490774678536E-18</v>
       </c>
       <c r="C11">
-        <v>-3.453968395733839E-18</v>
+        <v>-3.453968395730876E-18</v>
       </c>
       <c r="D11">
-        <v>7.964949945082391E-18</v>
+        <v>7.964949945087947E-18</v>
       </c>
       <c r="E11">
-        <v>-3.371533037329221E-17</v>
+        <v>-3.371533037329223E-17</v>
       </c>
       <c r="F11">
-        <v>3.207382287262253E-17</v>
+        <v>3.207382287262123E-17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -752,19 +761,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>9.552657631054706E-19</v>
+        <v>9.552657631070364E-19</v>
       </c>
       <c r="C12">
-        <v>-4.411208383999502E-18</v>
+        <v>-4.411208383998408E-18</v>
       </c>
       <c r="D12">
-        <v>6.321739910210443E-18</v>
+        <v>6.32173991021248E-18</v>
       </c>
       <c r="E12">
-        <v>-3.388713465819368E-17</v>
+        <v>-3.388713465819367E-17</v>
       </c>
       <c r="F12">
-        <v>3.241680789592567E-17</v>
+        <v>3.24168078959252E-17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -772,19 +781,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>4.933496015495076E-17</v>
+        <v>4.933496015494617E-17</v>
       </c>
       <c r="C13">
-        <v>3.964059880970253E-17</v>
+        <v>3.964059880969933E-17</v>
       </c>
       <c r="D13">
-        <v>5.902932150019899E-17</v>
+        <v>5.902932150019304E-17</v>
       </c>
       <c r="E13">
-        <v>-1.833236249377902E-17</v>
+        <v>-1.833236249377904E-17</v>
       </c>
       <c r="F13">
-        <v>1.399700001845694E-17</v>
+        <v>1.399700001845832E-17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -792,19 +801,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4.930516032342837E-17</v>
+        <v>4.930516032342539E-17</v>
       </c>
       <c r="C14">
-        <v>3.96161880609701E-17</v>
+        <v>3.961618806096801E-17</v>
       </c>
       <c r="D14">
-        <v>5.899413258588663E-17</v>
+        <v>5.899413258588276E-17</v>
       </c>
       <c r="E14">
-        <v>-1.834443224292244E-17</v>
+        <v>-1.834443224292249E-17</v>
       </c>
       <c r="F14">
-        <v>1.40023891012469E-17</v>
+        <v>1.400238910124779E-17</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -812,19 +821,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>4.865924657594139E-17</v>
+        <v>4.865924657595142E-17</v>
       </c>
       <c r="C15">
-        <v>3.909052473121447E-17</v>
+        <v>3.909052473122143E-17</v>
       </c>
       <c r="D15">
-        <v>5.822796842066832E-17</v>
+        <v>5.822796842068142E-17</v>
       </c>
       <c r="E15">
-        <v>-1.859472211607331E-17</v>
+        <v>-1.859472211607337E-17</v>
       </c>
       <c r="F15">
-        <v>1.412263951897823E-17</v>
+        <v>1.412263951897517E-17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -832,19 +841,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.869353299318113E-17</v>
+        <v>4.86935329931763E-17</v>
       </c>
       <c r="C16">
-        <v>3.918133410175769E-17</v>
+        <v>3.918133410175432E-17</v>
       </c>
       <c r="D16">
-        <v>5.820573188460458E-17</v>
+        <v>5.820573188459827E-17</v>
       </c>
       <c r="E16">
-        <v>-1.837447518246511E-17</v>
+        <v>-1.837447518246512E-17</v>
       </c>
       <c r="F16">
-        <v>1.417916247228172E-17</v>
+        <v>1.417916247228319E-17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -852,19 +861,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>5.061831098234247E-17</v>
+        <v>5.061831098235507E-17</v>
       </c>
       <c r="C17">
-        <v>4.059326307181108E-17</v>
+        <v>4.059326307181982E-17</v>
       </c>
       <c r="D17">
-        <v>6.064335889287386E-17</v>
+        <v>6.06433588928903E-17</v>
       </c>
       <c r="E17">
-        <v>-1.813697046616891E-17</v>
+        <v>-1.813697046616899E-17</v>
       </c>
       <c r="F17">
-        <v>1.366631345317377E-17</v>
+        <v>1.366631345316992E-17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -872,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>4.791413044310417E-17</v>
+        <v>4.791413044310244E-17</v>
       </c>
       <c r="C18">
-        <v>3.853024829913347E-17</v>
+        <v>3.853024829913226E-17</v>
       </c>
       <c r="D18">
-        <v>5.729801258707486E-17</v>
+        <v>5.729801258707262E-17</v>
       </c>
       <c r="E18">
-        <v>-1.873171563342253E-17</v>
+        <v>-1.873171563342258E-17</v>
       </c>
       <c r="F18">
-        <v>1.430747921973446E-17</v>
+        <v>1.430747921973498E-17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -892,19 +901,19 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>6.283746025146262E-17</v>
+        <v>6.283746025145654E-17</v>
       </c>
       <c r="C19">
-        <v>5.160387248449018E-17</v>
+        <v>5.160387248448599E-17</v>
       </c>
       <c r="D19">
-        <v>7.407104801843507E-17</v>
+        <v>7.407104801842707E-17</v>
       </c>
       <c r="E19">
-        <v>-1.231686717510474E-17</v>
+        <v>-1.231686717510459E-17</v>
       </c>
       <c r="F19">
-        <v>7.277907068386834E-18</v>
+        <v>7.277907068388729E-18</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -912,19 +921,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>6.575274984625618E-17</v>
+        <v>6.575274984624458E-17</v>
       </c>
       <c r="C20">
-        <v>5.384552398756596E-17</v>
+        <v>5.384552398755795E-17</v>
       </c>
       <c r="D20">
-        <v>7.76599757049464E-17</v>
+        <v>7.765997570493121E-17</v>
       </c>
       <c r="E20">
-        <v>-1.161784690206266E-17</v>
+        <v>-1.161784690206245E-17</v>
       </c>
       <c r="F20">
-        <v>6.604268976669057E-18</v>
+        <v>6.604268976672648E-18</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -932,19 +941,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>6.687207291305494E-17</v>
+        <v>6.687207291306549E-17</v>
       </c>
       <c r="C21">
-        <v>5.4725489603544E-17</v>
+        <v>5.47254896035514E-17</v>
       </c>
       <c r="D21">
-        <v>7.901865622256588E-17</v>
+        <v>7.901865622257957E-17</v>
       </c>
       <c r="E21">
-        <v>-1.128600984846409E-17</v>
+        <v>-1.128600984846388E-17</v>
       </c>
       <c r="F21">
-        <v>6.364911525848336E-18</v>
+        <v>6.364911525845193E-18</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -952,19 +961,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>6.564243354626803E-17</v>
+        <v>6.564243354627157E-17</v>
       </c>
       <c r="C22">
-        <v>5.369131333077485E-17</v>
+        <v>5.369131333077737E-17</v>
       </c>
       <c r="D22">
-        <v>7.759355376176122E-17</v>
+        <v>7.759355376176578E-17</v>
       </c>
       <c r="E22">
-        <v>-1.18725756359326E-17</v>
+        <v>-1.187257563593241E-17</v>
       </c>
       <c r="F22">
-        <v>6.560374619866084E-18</v>
+        <v>6.560374619865067E-18</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -972,19 +981,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>6.817041279982587E-17</v>
+        <v>6.817041279981297E-17</v>
       </c>
       <c r="C23">
-        <v>5.566105619927085E-17</v>
+        <v>5.566105619926195E-17</v>
       </c>
       <c r="D23">
-        <v>8.067976940038088E-17</v>
+        <v>8.067976940036396E-17</v>
       </c>
       <c r="E23">
-        <v>-1.118119408922816E-17</v>
+        <v>-1.118119408922789E-17</v>
       </c>
       <c r="F23">
-        <v>6.002138234804264E-18</v>
+        <v>6.002138234808268E-18</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -992,19 +1001,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>6.977180211354329E-17</v>
+        <v>6.977180211354215E-17</v>
       </c>
       <c r="C24">
-        <v>5.692842420483165E-17</v>
+        <v>5.692842420483094E-17</v>
       </c>
       <c r="D24">
-        <v>8.261518002225489E-17</v>
+        <v>8.261518002225335E-17</v>
       </c>
       <c r="E24">
-        <v>-1.0678734879346E-17</v>
+        <v>-1.067873487934574E-17</v>
       </c>
       <c r="F24">
-        <v>5.668116926647649E-18</v>
+        <v>5.668116926648072E-18</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1012,19 +1021,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>7.952814561618112E-17</v>
+        <v>7.952814561617459E-17</v>
       </c>
       <c r="C25">
-        <v>6.427063703726453E-17</v>
+        <v>6.427063703726005E-17</v>
       </c>
       <c r="D25">
-        <v>9.478565419509776E-17</v>
+        <v>9.478565419508915E-17</v>
       </c>
       <c r="E25">
-        <v>-8.864881281682544E-18</v>
+        <v>-8.86488128168231E-18</v>
       </c>
       <c r="F25">
-        <v>3.253986256442667E-18</v>
+        <v>3.253986256444725E-18</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1032,19 +1041,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>7.874793942442507E-17</v>
+        <v>7.87479394244202E-17</v>
       </c>
       <c r="C26">
-        <v>6.37236099059046E-17</v>
+        <v>6.37236099059013E-17</v>
       </c>
       <c r="D26">
-        <v>9.377226894294552E-17</v>
+        <v>9.377226894293909E-17</v>
       </c>
       <c r="E26">
-        <v>-8.87792836473528E-18</v>
+        <v>-8.877928364735012E-18</v>
       </c>
       <c r="F26">
-        <v>3.487165316838818E-18</v>
+        <v>3.487165316840379E-18</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1052,19 +1061,19 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>7.93568275631389E-17</v>
+        <v>7.935682756315049E-17</v>
       </c>
       <c r="C27">
-        <v>6.419218134996134E-17</v>
+        <v>6.419218134996949E-17</v>
       </c>
       <c r="D27">
-        <v>9.452147377631647E-17</v>
+        <v>9.452147377633149E-17</v>
       </c>
       <c r="E27">
-        <v>-8.73068215144334E-18</v>
+        <v>-8.730682151443056E-18</v>
       </c>
       <c r="F27">
-        <v>3.346848622181702E-18</v>
+        <v>3.346848622178269E-18</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1072,19 +1081,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>5.232307919371077E-16</v>
+        <v>1.799508297491059E-15</v>
       </c>
       <c r="C28">
-        <v>4.580754833619683E-16</v>
+        <v>1.392934393889083E-15</v>
       </c>
       <c r="D28">
-        <v>5.883861005122471E-16</v>
+        <v>2.206082201093034E-15</v>
       </c>
       <c r="E28">
-        <v>-5.233784027676956E-17</v>
+        <v>4.236843309673312E-16</v>
       </c>
       <c r="F28">
-        <v>1.790516632610389E-17</v>
+        <v>3.880624087666163E-16</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1092,19 +1101,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>5.282598824439912E-16</v>
+        <v>1.022767317445458E-16</v>
       </c>
       <c r="C29">
-        <v>4.619225506854992E-16</v>
+        <v>8.080218041114609E-17</v>
       </c>
       <c r="D29">
-        <v>5.945972142024834E-16</v>
+        <v>1.237512830779456E-16</v>
       </c>
       <c r="E29">
-        <v>-5.119760604311618E-17</v>
+        <v>-6.570365815567373E-18</v>
       </c>
       <c r="F29">
-        <v>1.672314314275125E-17</v>
+        <v>2.963056498040468E-18</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1112,19 +1121,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>5.249879777425839E-16</v>
+        <v>1.027362771034293E-16</v>
       </c>
       <c r="C30">
-        <v>4.581139303638028E-16</v>
+        <v>8.133863161439076E-17</v>
       </c>
       <c r="D30">
-        <v>5.918620251213653E-16</v>
+        <v>1.241339225924678E-16</v>
       </c>
       <c r="E30">
-        <v>-5.623530513527468E-17</v>
+        <v>-5.857800228735479E-18</v>
       </c>
       <c r="F30">
-        <v>1.618642752246212E-17</v>
+        <v>2.886150653679248E-18</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1132,19 +1141,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>5.258185482617233E-16</v>
+        <v>5.23230791936995E-16</v>
       </c>
       <c r="C31">
-        <v>4.586620883275153E-16</v>
+        <v>4.580754833618899E-16</v>
       </c>
       <c r="D31">
-        <v>5.929750081959314E-16</v>
+        <v>5.883861005121E-16</v>
       </c>
       <c r="E31">
-        <v>-5.633387192348953E-17</v>
+        <v>-5.233784027676908E-17</v>
       </c>
       <c r="F31">
-        <v>1.59040149670353E-17</v>
+        <v>1.790516632613832E-17</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1152,19 +1161,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>5.309714072302491E-16</v>
+        <v>5.282598824440648E-16</v>
       </c>
       <c r="C32">
-        <v>4.624277229727793E-16</v>
+        <v>4.619225506855505E-16</v>
       </c>
       <c r="D32">
-        <v>5.995150914877187E-16</v>
+        <v>5.94597214202579E-16</v>
       </c>
       <c r="E32">
-        <v>-5.574498097849465E-17</v>
+        <v>-5.119760604311567E-17</v>
       </c>
       <c r="F32">
-        <v>1.451679064377366E-17</v>
+        <v>1.672314314272906E-17</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1172,19 +1181,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>5.269739653782274E-16</v>
+        <v>5.24987977742691E-16</v>
       </c>
       <c r="C33">
-        <v>4.595982539518247E-16</v>
+        <v>4.581139303638773E-16</v>
       </c>
       <c r="D33">
-        <v>5.943496768046303E-16</v>
+        <v>5.918620251215048E-16</v>
       </c>
       <c r="E33">
-        <v>-5.589979221630611E-17</v>
+        <v>-5.623530513527461E-17</v>
       </c>
       <c r="F33">
-        <v>1.568476347484059E-17</v>
+        <v>1.61864275224296E-17</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1192,19 +1201,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>5.746322092355397E-16</v>
+        <v>5.258185482617351E-16</v>
       </c>
       <c r="C34">
-        <v>4.959752214761704E-16</v>
+        <v>4.586620883275235E-16</v>
       </c>
       <c r="D34">
-        <v>6.532891969949091E-16</v>
+        <v>5.929750081959466E-16</v>
       </c>
       <c r="E34">
-        <v>-4.535694749445382E-17</v>
+        <v>-5.633387192348936E-17</v>
       </c>
       <c r="F34">
-        <v>4.403487141874043E-18</v>
+        <v>1.590401496703178E-17</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1212,19 +1221,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>5.770654224204287E-16</v>
+        <v>5.30971407230067E-16</v>
       </c>
       <c r="C35">
-        <v>4.977408678390802E-16</v>
+        <v>4.624277229726526E-16</v>
       </c>
       <c r="D35">
-        <v>6.563899770017771E-16</v>
+        <v>5.995150914874811E-16</v>
       </c>
       <c r="E35">
-        <v>-4.512002915387597E-17</v>
+        <v>-5.574498097849418E-17</v>
       </c>
       <c r="F35">
-        <v>3.735920319894948E-18</v>
+        <v>1.451679064382916E-17</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1232,19 +1241,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>5.697548480217987E-16</v>
+        <v>5.269739653782617E-16</v>
       </c>
       <c r="C36">
-        <v>4.920473579714841E-16</v>
+        <v>4.595982539518485E-16</v>
       </c>
       <c r="D36">
-        <v>6.474623380721134E-16</v>
+        <v>5.943496768046749E-16</v>
       </c>
       <c r="E36">
-        <v>-4.711046124540513E-17</v>
+        <v>-5.589979221630594E-17</v>
       </c>
       <c r="F36">
-        <v>5.352984850928638E-18</v>
+        <v>1.568476347483021E-17</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1252,19 +1261,19 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>5.726439473416279E-16</v>
+        <v>5.746322092357464E-16</v>
       </c>
       <c r="C37">
-        <v>4.943014345216068E-16</v>
+        <v>4.959752214763144E-16</v>
       </c>
       <c r="D37">
-        <v>6.509864601616489E-16</v>
+        <v>6.532891969951783E-16</v>
       </c>
       <c r="E37">
-        <v>-4.631058683790954E-17</v>
+        <v>-4.535694749445305E-17</v>
       </c>
       <c r="F37">
-        <v>4.717962081222358E-18</v>
+        <v>4.403487141811457E-18</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1272,19 +1281,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>5.737567503105844E-16</v>
+        <v>5.770654224202746E-16</v>
       </c>
       <c r="C38">
-        <v>4.951582707867219E-16</v>
+        <v>4.977408678389733E-16</v>
       </c>
       <c r="D38">
-        <v>6.523552298344471E-16</v>
+        <v>6.563899770015761E-16</v>
       </c>
       <c r="E38">
-        <v>-4.603991432459177E-17</v>
+        <v>-4.512002915387545E-17</v>
       </c>
       <c r="F38">
-        <v>4.461995377380793E-18</v>
+        <v>3.73592031994195E-18</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1292,19 +1301,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>5.711043047902234E-16</v>
+        <v>5.697548480216842E-16</v>
       </c>
       <c r="C39">
-        <v>4.930246226547129E-16</v>
+        <v>4.920473579714046E-16</v>
       </c>
       <c r="D39">
-        <v>6.491839869257339E-16</v>
+        <v>6.474623380719638E-16</v>
       </c>
       <c r="E39">
-        <v>-4.698551643727432E-17</v>
+        <v>-4.71104612454044E-17</v>
       </c>
       <c r="F39">
-        <v>4.980792765732909E-18</v>
+        <v>5.352984850963654E-18</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1312,19 +1321,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>6.353399582662767E-16</v>
+        <v>5.726439473417923E-16</v>
       </c>
       <c r="C40">
-        <v>5.425369127459397E-16</v>
+        <v>4.943014345217214E-16</v>
       </c>
       <c r="D40">
-        <v>7.281430037866137E-16</v>
+        <v>6.50986460161863E-16</v>
       </c>
       <c r="E40">
-        <v>-3.118972849730029E-17</v>
+        <v>-4.631058683790905E-17</v>
       </c>
       <c r="F40">
-        <v>9.742570619093621E-18</v>
+        <v>4.717962081172569E-18</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1332,19 +1341,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>6.403829085181023E-16</v>
+        <v>5.737567503104755E-16</v>
       </c>
       <c r="C41">
-        <v>5.465822449649858E-16</v>
+        <v>4.951582707866463E-16</v>
       </c>
       <c r="D41">
-        <v>7.34183572071219E-16</v>
+        <v>6.523552298343049E-16</v>
       </c>
       <c r="E41">
-        <v>-2.942894157331931E-17</v>
+        <v>-4.603991432459117E-17</v>
       </c>
       <c r="F41">
-        <v>1.074018865187312E-17</v>
+        <v>4.461995377414053E-18</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1352,19 +1361,19 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>5.097421310583032E-16</v>
+        <v>5.711043047903445E-16</v>
       </c>
       <c r="C42">
-        <v>4.466298455594227E-16</v>
+        <v>4.930246226547975E-16</v>
       </c>
       <c r="D42">
-        <v>5.728544165571837E-16</v>
+        <v>6.491839869258914E-16</v>
       </c>
       <c r="E42">
-        <v>-5.9104955234682E-17</v>
+        <v>-4.698551643727342E-17</v>
       </c>
       <c r="F42">
-        <v>1.994818940236283E-17</v>
+        <v>4.980792765696404E-18</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1372,19 +1381,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>5.118317586993972E-16</v>
+        <v>6.353399582662192E-16</v>
       </c>
       <c r="C43">
-        <v>4.482234079673562E-16</v>
+        <v>5.425369127459E-16</v>
       </c>
       <c r="D43">
-        <v>5.754401094314383E-16</v>
+        <v>7.281430037865382E-16</v>
       </c>
       <c r="E43">
-        <v>-5.864738221068624E-17</v>
+        <v>-3.118972849729915E-17</v>
       </c>
       <c r="F43">
-        <v>1.945212416920232E-17</v>
+        <v>9.742570619075738E-18</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1392,19 +1401,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>4.865365984708767E-16</v>
+        <v>6.403829085181485E-16</v>
       </c>
       <c r="C44">
-        <v>4.28950357749506E-16</v>
+        <v>5.465822449650182E-16</v>
       </c>
       <c r="D44">
-        <v>5.441228391922474E-16</v>
+        <v>7.341835720712785E-16</v>
       </c>
       <c r="E44">
-        <v>-6.412980050410118E-17</v>
+        <v>-2.942894157331811E-17</v>
       </c>
       <c r="F44">
-        <v>2.547423417987271E-17</v>
+        <v>1.074018865188675E-17</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1412,19 +1421,19 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>4.826582517520566E-16</v>
+        <v>5.097421310584869E-16</v>
       </c>
       <c r="C45">
-        <v>4.261328868710505E-16</v>
+        <v>4.466298455595505E-16</v>
       </c>
       <c r="D45">
-        <v>5.391836166330627E-16</v>
+        <v>5.728544165574232E-16</v>
       </c>
       <c r="E45">
-        <v>-6.451786570812181E-17</v>
+        <v>-5.910495523468196E-17</v>
       </c>
       <c r="F45">
-        <v>2.653511002023727E-17</v>
+        <v>1.994818940230708E-17</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1432,19 +1441,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>6.465964304256519E-16</v>
+        <v>5.11831758699434E-16</v>
       </c>
       <c r="C46">
-        <v>5.463472170488136E-16</v>
+        <v>4.482234079673817E-16</v>
       </c>
       <c r="D46">
-        <v>7.468456438024903E-16</v>
+        <v>5.754401094314862E-16</v>
       </c>
       <c r="E46">
-        <v>-4.443114858581458E-17</v>
+        <v>-5.864738221068604E-17</v>
       </c>
       <c r="F46">
-        <v>1.718873847559499E-17</v>
+        <v>1.945212416919119E-17</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1452,19 +1461,79 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>6.506191192443755E-16</v>
+        <v>4.865365984709716E-16</v>
       </c>
       <c r="C47">
-        <v>5.491951263199452E-16</v>
+        <v>4.289503577495721E-16</v>
       </c>
       <c r="D47">
-        <v>7.520431121688058E-16</v>
+        <v>5.441228391923711E-16</v>
       </c>
       <c r="E47">
-        <v>-4.427348447866873E-17</v>
+        <v>-6.412980050410112E-17</v>
       </c>
       <c r="F47">
-        <v>1.836351802318697E-17</v>
+        <v>2.547423417984386E-17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>4.82658251752119E-16</v>
+      </c>
+      <c r="C48">
+        <v>4.26132886871094E-16</v>
+      </c>
+      <c r="D48">
+        <v>5.391836166331441E-16</v>
+      </c>
+      <c r="E48">
+        <v>-6.451786570812174E-17</v>
+      </c>
+      <c r="F48">
+        <v>2.65351100202183E-17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>6.465964304255161E-16</v>
+      </c>
+      <c r="C49">
+        <v>5.463472170487191E-16</v>
+      </c>
+      <c r="D49">
+        <v>7.468456438023131E-16</v>
+      </c>
+      <c r="E49">
+        <v>-4.443114858581431E-17</v>
+      </c>
+      <c r="F49">
+        <v>1.718873847555362E-17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>6.50619119244621E-16</v>
+      </c>
+      <c r="C50">
+        <v>5.49195126320116E-16</v>
+      </c>
+      <c r="D50">
+        <v>7.520431121691259E-16</v>
+      </c>
+      <c r="E50">
+        <v>-4.427348447866851E-17</v>
+      </c>
+      <c r="F50">
+        <v>1.836351802326155E-17</v>
       </c>
     </row>
   </sheetData>
